--- a/biology/Botanique/Cortinarius_damascenus/Cortinarius_damascenus.xlsx
+++ b/biology/Botanique/Cortinarius_damascenus/Cortinarius_damascenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinarius damascenus , le Cortinaire damascène, est une espèce de champignons basidiomycètes de la famille des Cortinariaceae.
 </t>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Cortinarius damascenus Fr., 1838
-Synonymes
-sous-genre Telamonia et dans la section des Duracini.  Tartarat (2002) et Moser (2000 : 426-427)
-sous-genre Hydrocybe, section Damasceni. Bidaud et al. (1994)</t>
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cortinarius damascenus Fr., 1838
+</t>
         </is>
       </c>
     </row>
@@ -542,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sous-genre Telamonia et dans la section des Duracini.  Tartarat (2002) et Moser (2000 : 426-427)
+sous-genre Hydrocybe, section Damasceni. Bidaud et al. (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cortinarius_damascenus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cortinarius_damascenus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : chapeau : 50 à 80 mm, convexe à bassement mamelonné à l’état jeune. Restes de voile blanc argenté à la périphérie. Parfois marge brisée, infractée, grossièrement froncée-lobée-onduleuse donnant alors au chapeau un aspect chahuté-tourmenté.
 Cuticule : nettement hygrophane, brun foncé imbu, brun clair au sec avec le centre brun ocre.
@@ -557,37 +611,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cortinarius_damascenus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cortinarius_damascenus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En touffes, en terrain argilo-calcaire, sous le couvert d’une jeune chênaie clairsemée, non loin de C. balteato-cumatilis.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -609,12 +632,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En touffes, en terrain argilo-calcaire, sous le couvert d’une jeune chênaie clairsemée, non loin de C. balteato-cumatilis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cortinarius_damascenus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cortinarius_damascenus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur le terrain, le champignon lorsqu’il est imbu peut être pris pour un Lyophyllum aggregatum mais sa consistance est nettement plus fragile[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le terrain, le champignon lorsqu’il est imbu peut être pris pour un Lyophyllum aggregatum mais sa consistance est nettement plus fragile.
 </t>
         </is>
       </c>
